--- a/Code/Results/Cases/Case_4_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.091314005435777</v>
+        <v>2.23060401392695</v>
       </c>
       <c r="C2">
-        <v>0.3348841629334061</v>
+        <v>0.1123143690809343</v>
       </c>
       <c r="D2">
-        <v>0.2643828773741603</v>
+        <v>0.4930429649347303</v>
       </c>
       <c r="E2">
-        <v>0.05923621363965914</v>
+        <v>0.153012318667983</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008150717043682501</v>
+        <v>0.002527355200859052</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02358117684479577</v>
+        <v>0.05488047511336092</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3802154799824535</v>
+        <v>0.4910442775714046</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.85924630462819</v>
+        <v>1.736197621498263</v>
       </c>
       <c r="O2">
-        <v>3.486979562800087</v>
+        <v>6.411123814880199</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.704980308169127</v>
+        <v>2.131956074550487</v>
       </c>
       <c r="C3">
-        <v>0.2963263380339924</v>
+        <v>0.100124865357202</v>
       </c>
       <c r="D3">
-        <v>0.2484677747788169</v>
+        <v>0.4919802920147447</v>
       </c>
       <c r="E3">
-        <v>0.05862665044839765</v>
+        <v>0.1537033091196633</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008206846806211402</v>
+        <v>0.002531105391039279</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02375453678084494</v>
+        <v>0.05500228573306654</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.342418191993616</v>
+        <v>0.4835916280197807</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9067864060604549</v>
+        <v>1.755947880334318</v>
       </c>
       <c r="O3">
-        <v>3.325053031178328</v>
+        <v>6.419591120900918</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.469709090132255</v>
+        <v>2.072248509538554</v>
       </c>
       <c r="C4">
-        <v>0.2726653442356195</v>
+        <v>0.09259618401169689</v>
       </c>
       <c r="D4">
-        <v>0.2390632847868801</v>
+        <v>0.4915409414366962</v>
       </c>
       <c r="E4">
-        <v>0.05833119149715316</v>
+        <v>0.1541801141137</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008242422489442051</v>
+        <v>0.002533532019736297</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0238678378097994</v>
+        <v>0.05508224912474002</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3195923963258167</v>
+        <v>0.4792237629983873</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9372881842103631</v>
+        <v>1.768718298105721</v>
       </c>
       <c r="O4">
-        <v>3.232835489872116</v>
+        <v>6.428276561215966</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.374262340998428</v>
+        <v>2.048135287526634</v>
       </c>
       <c r="C5">
-        <v>0.2630223966901468</v>
+        <v>0.08951714893183293</v>
       </c>
       <c r="D5">
-        <v>0.2353179625917221</v>
+        <v>0.4914155538296257</v>
       </c>
       <c r="E5">
-        <v>0.05822989412932245</v>
+        <v>0.154387642358456</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.000825720605560936</v>
+        <v>0.002534552168118581</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02391573202610164</v>
+        <v>0.05511613927705739</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3103789314885717</v>
+        <v>0.4774962689683946</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.950038897814153</v>
+        <v>1.774084204939548</v>
       </c>
       <c r="O5">
-        <v>3.196958613585593</v>
+        <v>6.432692014362232</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.358437676716505</v>
+        <v>2.044144512511309</v>
       </c>
       <c r="C6">
-        <v>0.2614210172172307</v>
+        <v>0.08900521382751947</v>
       </c>
       <c r="D6">
-        <v>0.2347011649545294</v>
+        <v>0.4913979754109761</v>
       </c>
       <c r="E6">
-        <v>0.05821420754115891</v>
+        <v>0.1544229015831835</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008259678326979882</v>
+        <v>0.00253472345494808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02392378887248459</v>
+        <v>0.05512184561572298</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3088541529904347</v>
+        <v>0.4772125910986773</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9521752809502946</v>
+        <v>1.774984985580923</v>
       </c>
       <c r="O6">
-        <v>3.191101037318987</v>
+        <v>6.433478090798019</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.468420204008851</v>
+        <v>2.071922425580965</v>
       </c>
       <c r="C7">
-        <v>0.2725353052314006</v>
+        <v>0.09255470362440121</v>
       </c>
       <c r="D7">
-        <v>0.2390124282560038</v>
+        <v>0.491539033106946</v>
       </c>
       <c r="E7">
-        <v>0.05832974892552123</v>
+        <v>0.1541828593374586</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008242620698322156</v>
+        <v>0.002533545651054832</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02386847675220327</v>
+        <v>0.05508270089209955</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3194677930185321</v>
+        <v>0.4792002528952395</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9374588564827331</v>
+        <v>1.768790009248752</v>
       </c>
       <c r="O7">
-        <v>3.2323448882251</v>
+        <v>6.428332563268526</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.957666556340712</v>
+        <v>2.196411822350115</v>
       </c>
       <c r="C8">
-        <v>0.3215838709812431</v>
+        <v>0.1081206726061623</v>
       </c>
       <c r="D8">
-        <v>0.2588157834683926</v>
+        <v>0.4926323516043567</v>
       </c>
       <c r="E8">
-        <v>0.05900923496438182</v>
+        <v>0.153239678347596</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008169843936852975</v>
+        <v>0.002528622589771169</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02363952721438967</v>
+        <v>0.05492140459017492</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3670988544611475</v>
+        <v>0.4884314828194931</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8753603060212853</v>
+        <v>1.742873915823591</v>
       </c>
       <c r="O8">
-        <v>3.429583648170478</v>
+        <v>6.413319321444988</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.935394596727065</v>
+        <v>2.447343215124647</v>
       </c>
       <c r="C9">
-        <v>0.4180927518706881</v>
+        <v>0.1382913163039916</v>
       </c>
       <c r="D9">
-        <v>0.3008241166840833</v>
+        <v>0.4964656572306865</v>
       </c>
       <c r="E9">
-        <v>0.06100160916950159</v>
+        <v>0.1518062712295318</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008035630658133187</v>
+        <v>0.002519947891971097</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02324505310158465</v>
+        <v>0.05464595197955902</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4639157145253279</v>
+        <v>0.5081812093876721</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7644221299159533</v>
+        <v>1.6971592763724</v>
       </c>
       <c r="O9">
-        <v>3.878857505989714</v>
+        <v>6.411578450434348</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.669372393665014</v>
+        <v>2.635824974339698</v>
       </c>
       <c r="C10">
-        <v>0.4895300377828846</v>
+        <v>0.1602400363737786</v>
       </c>
       <c r="D10">
-        <v>0.334012485660395</v>
+        <v>0.5003103975120382</v>
       </c>
       <c r="E10">
-        <v>0.06291951006761742</v>
+        <v>0.1510060273706681</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007941728230971244</v>
+        <v>0.002514165439716449</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02298863175523369</v>
+        <v>0.05446823107030685</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5377085592629669</v>
+        <v>0.5236926422612385</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6901576146265214</v>
+        <v>1.666684324793156</v>
       </c>
       <c r="O10">
-        <v>4.255037605919313</v>
+        <v>6.427247523763924</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.007772424417226</v>
+        <v>2.722460933144816</v>
       </c>
       <c r="C11">
-        <v>0.5222271377738821</v>
+        <v>0.1701775859526151</v>
       </c>
       <c r="D11">
-        <v>0.3497105628476191</v>
+        <v>0.5022825542915399</v>
       </c>
       <c r="E11">
-        <v>0.06390320066966027</v>
+        <v>0.1506967193242179</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007899915640967493</v>
+        <v>0.002511661823993345</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02287929285603063</v>
+        <v>0.05439268217186388</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5719991619423581</v>
+        <v>0.5309661551898586</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6581002623519794</v>
+        <v>1.653495858948375</v>
       </c>
       <c r="O11">
-        <v>4.438138947374739</v>
+        <v>6.438070057695995</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.136663846640715</v>
+        <v>2.755395535255616</v>
       </c>
       <c r="C12">
-        <v>0.5346449686718984</v>
+        <v>0.173933846823445</v>
       </c>
       <c r="D12">
-        <v>0.3557500159209894</v>
+        <v>0.5030614132539881</v>
       </c>
       <c r="E12">
-        <v>0.06429284020295256</v>
+        <v>0.1505874479903824</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007884201945250563</v>
+        <v>0.002510731910536146</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02283894739483294</v>
+        <v>0.05436483139578918</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5851008815786543</v>
+        <v>0.5337516080072078</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6462235917022916</v>
+        <v>1.648598784104838</v>
       </c>
       <c r="O12">
-        <v>4.509376296520543</v>
+        <v>6.442700532253127</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.108869902715867</v>
+        <v>2.748296830380468</v>
       </c>
       <c r="C13">
-        <v>0.5319688330749841</v>
+        <v>0.1731251762817294</v>
       </c>
       <c r="D13">
-        <v>0.354444944743733</v>
+        <v>0.5028922474941879</v>
       </c>
       <c r="E13">
-        <v>0.06420814291506716</v>
+        <v>0.1506106322903609</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007887581013682007</v>
+        <v>0.002510931378091415</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02284758927660668</v>
+        <v>0.05437079590848537</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5822737887800571</v>
+        <v>0.5331503281315264</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6487695135608575</v>
+        <v>1.649649136360249</v>
       </c>
       <c r="O13">
-        <v>4.493946493792691</v>
+        <v>6.441679591207674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.018360839897014</v>
+        <v>2.725167935376192</v>
       </c>
       <c r="C14">
-        <v>0.5232479906880485</v>
+        <v>0.1704867541777162</v>
       </c>
       <c r="D14">
-        <v>0.350205477857358</v>
+        <v>0.5023459894921274</v>
       </c>
       <c r="E14">
-        <v>0.06393490619396403</v>
+        <v>0.1506875721141405</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007898620526181527</v>
+        <v>0.002511584956191202</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02287595233916573</v>
+        <v>0.05439037570272376</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5730746336204646</v>
+        <v>0.5311946927991471</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6571178075580448</v>
+        <v>1.6530910269054</v>
       </c>
       <c r="O14">
-        <v>4.44396050815584</v>
+        <v>6.438440337816417</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.963021733728226</v>
+        <v>2.711017380779481</v>
       </c>
       <c r="C15">
-        <v>0.5179111627863904</v>
+        <v>0.1688697460693902</v>
       </c>
       <c r="D15">
-        <v>0.3476213124626639</v>
+        <v>0.5020155627072143</v>
       </c>
       <c r="E15">
-        <v>0.06376980818830802</v>
+        <v>0.1507357228038941</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007905397833915392</v>
+        <v>0.002511987653047609</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02289346368560174</v>
+        <v>0.05440246748811095</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5674554721572207</v>
+        <v>0.5300008605488387</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6622660509473484</v>
+        <v>1.655211933542926</v>
       </c>
       <c r="O15">
-        <v>4.413595782350342</v>
+        <v>6.436525539813942</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.64735609238528</v>
+        <v>2.630181010203728</v>
       </c>
       <c r="C16">
-        <v>0.487397844378421</v>
+        <v>0.1595896382745536</v>
       </c>
       <c r="D16">
-        <v>0.332999379638494</v>
+        <v>0.5001859992286342</v>
       </c>
       <c r="E16">
-        <v>0.06285755724520037</v>
+        <v>0.1510273415301349</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007944478123731487</v>
+        <v>0.002514331601840041</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02299592500622616</v>
+        <v>0.05447327463851437</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5354831820584565</v>
+        <v>0.523221663637969</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.69228858477301</v>
+        <v>1.667559806627935</v>
       </c>
       <c r="O16">
-        <v>4.243327393083291</v>
+        <v>6.426614670298704</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.454927574580495</v>
+        <v>2.580818797900804</v>
       </c>
       <c r="C17">
-        <v>0.4687351555890302</v>
+        <v>0.1538844677604914</v>
       </c>
       <c r="D17">
-        <v>0.3241889755776555</v>
+        <v>0.4991207470749401</v>
       </c>
       <c r="E17">
-        <v>0.06232719187647717</v>
+        <v>0.1512202479177329</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007968677193145069</v>
+        <v>0.002515801963919761</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02306065862932094</v>
+        <v>0.05451806657886227</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5160628573511303</v>
+        <v>0.5191184162145106</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7111584637103654</v>
+        <v>1.675307702364531</v>
       </c>
       <c r="O17">
-        <v>4.142062593367655</v>
+        <v>6.421481610734133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.344665879554952</v>
+        <v>2.552511240203785</v>
       </c>
       <c r="C18">
-        <v>0.4580192035947732</v>
+        <v>0.1505985841227755</v>
       </c>
       <c r="D18">
-        <v>0.3191774319404175</v>
+        <v>0.4985290502102657</v>
       </c>
       <c r="E18">
-        <v>0.06203253508460271</v>
+        <v>0.1513363544762569</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007982681612874742</v>
+        <v>0.002516659622452673</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02309857903576251</v>
+        <v>0.05454432854354874</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5049599127408584</v>
+        <v>0.5167787953869549</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7221734295634761</v>
+        <v>1.679827591626864</v>
       </c>
       <c r="O18">
-        <v>4.08493329086258</v>
+        <v>6.418876906462003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.307402127150169</v>
+        <v>2.542941299867607</v>
       </c>
       <c r="C19">
-        <v>0.4543939013308034</v>
+        <v>0.1494852845336254</v>
       </c>
       <c r="D19">
-        <v>0.3174899726191711</v>
+        <v>0.4983323213422182</v>
       </c>
       <c r="E19">
-        <v>0.06193452151361001</v>
+        <v>0.1513765513982204</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007987438293919723</v>
+        <v>0.00251695206534349</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02311153607349681</v>
+        <v>0.05455330618283494</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5012118015866207</v>
+        <v>0.5159901572426975</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7259302239260705</v>
+        <v>1.681368852986733</v>
       </c>
       <c r="O19">
-        <v>4.065776695736872</v>
+        <v>6.418054687085316</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.475367964675229</v>
+        <v>2.586064775641603</v>
       </c>
       <c r="C20">
-        <v>0.4707198819819496</v>
+        <v>0.1544922512019014</v>
       </c>
       <c r="D20">
-        <v>0.3251210059291481</v>
+        <v>0.499231971064475</v>
       </c>
       <c r="E20">
-        <v>0.06238256632786054</v>
+        <v>0.1511991795934033</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000796609235620215</v>
+        <v>0.002515644205766647</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02305369643631128</v>
+        <v>0.05451324680108538</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5181231490925455</v>
+        <v>0.5195530973527696</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7091329156673041</v>
+        <v>1.674476352557733</v>
       </c>
       <c r="O20">
-        <v>4.152725706777176</v>
+        <v>6.421992041692022</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.044924453225747</v>
+        <v>2.731958003244472</v>
       </c>
       <c r="C21">
-        <v>0.5258084697616994</v>
+        <v>0.1712619101249118</v>
       </c>
       <c r="D21">
-        <v>0.3514480634700021</v>
+        <v>0.5025055693439384</v>
       </c>
       <c r="E21">
-        <v>0.06401468774279628</v>
+        <v>0.1506647598892403</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007895374787914618</v>
+        <v>0.002511392492679952</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02286759261281546</v>
+        <v>0.05438460410207391</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5757733756790344</v>
+        <v>0.5317682663081342</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6546584577656809</v>
+        <v>1.652077423960147</v>
       </c>
       <c r="O21">
-        <v>4.458589508352077</v>
+        <v>6.439377333343202</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.421567064150054</v>
+        <v>2.828049953853679</v>
       </c>
       <c r="C22">
-        <v>0.5620267326244459</v>
+        <v>0.1821817371576628</v>
       </c>
       <c r="D22">
-        <v>0.3692121982972338</v>
+        <v>0.5048318233184119</v>
       </c>
       <c r="E22">
-        <v>0.06518186590759711</v>
+        <v>0.1503612760113633</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007849849829701591</v>
+        <v>0.002508719510315016</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02275213954479494</v>
+        <v>0.0543049448498083</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6141376594846548</v>
+        <v>0.5399329905731491</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.620595481269639</v>
+        <v>1.638004509135303</v>
       </c>
       <c r="O22">
-        <v>4.669663948439904</v>
+        <v>6.453842230847101</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.220107927353183</v>
+        <v>2.776696347663574</v>
       </c>
       <c r="C23">
-        <v>0.5426740774747145</v>
+        <v>0.1763573266363778</v>
       </c>
       <c r="D23">
-        <v>0.3596770618086822</v>
+        <v>0.5035731831235637</v>
       </c>
       <c r="E23">
-        <v>0.06454932196133178</v>
+        <v>0.1505190654218929</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007874087535516016</v>
+        <v>0.00251013648394912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02281319078463095</v>
+        <v>0.05434705765307069</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5935945541655769</v>
+        <v>0.5355587622946985</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6386295400024302</v>
+        <v>1.645463663122808</v>
       </c>
       <c r="O23">
-        <v>4.555923579041121</v>
+        <v>6.445837841590674</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.466125725311826</v>
+        <v>2.583692846490578</v>
       </c>
       <c r="C24">
-        <v>0.4698225457539138</v>
+        <v>0.1542174906956575</v>
       </c>
       <c r="D24">
-        <v>0.3246994684607074</v>
+        <v>0.4991816221216681</v>
       </c>
       <c r="E24">
-        <v>0.06235749967430948</v>
+        <v>0.151208688377956</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007967260673309606</v>
+        <v>0.002515715489818559</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02305684185088985</v>
+        <v>0.05451542423263511</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5171914988509769</v>
+        <v>0.5193565176028727</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7100481486590695</v>
+        <v>1.67485200170734</v>
       </c>
       <c r="O24">
-        <v>4.147901533973084</v>
+        <v>6.421760196997866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.668492530773847</v>
+        <v>2.378733697039308</v>
       </c>
       <c r="C25">
-        <v>0.3919170451678724</v>
+        <v>0.1301674570422335</v>
       </c>
       <c r="D25">
-        <v>0.2890815419446824</v>
+        <v>0.4952479455920695</v>
       </c>
       <c r="E25">
-        <v>0.06038686305237562</v>
+        <v>0.1521495783107554</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008071076128007027</v>
+        <v>0.002522190421091079</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0233459202060855</v>
+        <v>0.05471612184114694</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4373017176313141</v>
+        <v>0.5026623371403076</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.793211249355501</v>
+        <v>1.708979774838273</v>
       </c>
       <c r="O25">
-        <v>3.749840019812751</v>
+        <v>6.409077617275472</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_230/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_230/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.23060401392695</v>
+        <v>3.091314005435549</v>
       </c>
       <c r="C2">
-        <v>0.1123143690809343</v>
+        <v>0.3348841629336619</v>
       </c>
       <c r="D2">
-        <v>0.4930429649347303</v>
+        <v>0.2643828773742172</v>
       </c>
       <c r="E2">
-        <v>0.153012318667983</v>
+        <v>0.05923621363965736</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002527355200859052</v>
+        <v>0.0008150717044315073</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05488047511336092</v>
+        <v>0.02358117684484995</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4910442775714046</v>
+        <v>0.380215479982482</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.736197621498263</v>
+        <v>0.859246304628126</v>
       </c>
       <c r="O2">
-        <v>6.411123814880199</v>
+        <v>3.486979562800059</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.131956074550487</v>
+        <v>2.704980308169183</v>
       </c>
       <c r="C3">
-        <v>0.100124865357202</v>
+        <v>0.2963263380338788</v>
       </c>
       <c r="D3">
-        <v>0.4919802920147447</v>
+        <v>0.2484677747789306</v>
       </c>
       <c r="E3">
-        <v>0.1537033091196633</v>
+        <v>0.05862665044838344</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002531105391039279</v>
+        <v>0.0008206846806219174</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05500228573306654</v>
+        <v>0.02375453678082007</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4835916280197807</v>
+        <v>0.342418191993616</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.755947880334318</v>
+        <v>0.9067864060604549</v>
       </c>
       <c r="O3">
-        <v>6.419591120900918</v>
+        <v>3.3250530311783</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.072248509538554</v>
+        <v>2.469709090132312</v>
       </c>
       <c r="C4">
-        <v>0.09259618401169689</v>
+        <v>0.2726653442357332</v>
       </c>
       <c r="D4">
-        <v>0.4915409414366962</v>
+        <v>0.2390632847868801</v>
       </c>
       <c r="E4">
-        <v>0.1541801141137</v>
+        <v>0.05833119149715316</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002533532019736297</v>
+        <v>0.0008242422489127543</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05508224912474002</v>
+        <v>0.02386783780984914</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4792237629983873</v>
+        <v>0.3195923963257741</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.768718298105721</v>
+        <v>0.9372881842104324</v>
       </c>
       <c r="O4">
-        <v>6.428276561215966</v>
+        <v>3.232835489872116</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.048135287526634</v>
+        <v>2.374262340998371</v>
       </c>
       <c r="C5">
-        <v>0.08951714893183293</v>
+        <v>0.2630223966897063</v>
       </c>
       <c r="D5">
-        <v>0.4914155538296257</v>
+        <v>0.2353179625917932</v>
       </c>
       <c r="E5">
-        <v>0.154387642358456</v>
+        <v>0.05822989412932245</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002534552168118581</v>
+        <v>0.0008257206055013816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05511613927705739</v>
+        <v>0.02391573202598618</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4774962689683946</v>
+        <v>0.3103789314885432</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.774084204939548</v>
+        <v>0.9500388978141672</v>
       </c>
       <c r="O5">
-        <v>6.432692014362232</v>
+        <v>3.196958613585707</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.044144512511309</v>
+        <v>2.358437676716449</v>
       </c>
       <c r="C6">
-        <v>0.08900521382751947</v>
+        <v>0.2614210172168896</v>
       </c>
       <c r="D6">
-        <v>0.4913979754109761</v>
+        <v>0.2347011649542594</v>
       </c>
       <c r="E6">
-        <v>0.1544229015831835</v>
+        <v>0.05821420754116069</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00253472345494808</v>
+        <v>0.0008259678327286486</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05512184561572298</v>
+        <v>0.02392378887255742</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4772125910986773</v>
+        <v>0.3088541529904774</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.774984985580923</v>
+        <v>0.9521752809502431</v>
       </c>
       <c r="O6">
-        <v>6.433478090798019</v>
+        <v>3.191101037319015</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.071922425580965</v>
+        <v>2.468420204008851</v>
       </c>
       <c r="C7">
-        <v>0.09255470362440121</v>
+        <v>0.272535305231429</v>
       </c>
       <c r="D7">
-        <v>0.491539033106946</v>
+        <v>0.2390124282561601</v>
       </c>
       <c r="E7">
-        <v>0.1541828593374586</v>
+        <v>0.05832974892552478</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002533545651054832</v>
+        <v>0.0008242620698332186</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05508270089209955</v>
+        <v>0.02386847675219972</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4792002528952395</v>
+        <v>0.3194677930185321</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.768790009248752</v>
+        <v>0.937458856482758</v>
       </c>
       <c r="O7">
-        <v>6.428332563268526</v>
+        <v>3.232344888225242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.196411822350115</v>
+        <v>2.957666556340655</v>
       </c>
       <c r="C8">
-        <v>0.1081206726061623</v>
+        <v>0.3215838709811578</v>
       </c>
       <c r="D8">
-        <v>0.4926323516043567</v>
+        <v>0.2588157834682789</v>
       </c>
       <c r="E8">
-        <v>0.153239678347596</v>
+        <v>0.05900923496439958</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002528622589771169</v>
+        <v>0.0008169843937184659</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05492140459017492</v>
+        <v>0.0236395272143346</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4884314828194931</v>
+        <v>0.3670988544611617</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.742873915823591</v>
+        <v>0.8753603060213564</v>
       </c>
       <c r="O8">
-        <v>6.413319321444988</v>
+        <v>3.429583648170478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.447343215124647</v>
+        <v>3.935394596727122</v>
       </c>
       <c r="C9">
-        <v>0.1382913163039916</v>
+        <v>0.4180927518707165</v>
       </c>
       <c r="D9">
-        <v>0.4964656572306865</v>
+        <v>0.3008241166841685</v>
       </c>
       <c r="E9">
-        <v>0.1518062712295318</v>
+        <v>0.06100160916951225</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002519947891971097</v>
+        <v>0.0008035630658438939</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05464595197955902</v>
+        <v>0.02324505310155978</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5081812093876721</v>
+        <v>0.4639157145252568</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.6971592763724</v>
+        <v>0.7644221299159639</v>
       </c>
       <c r="O9">
-        <v>6.411578450434348</v>
+        <v>3.878857505989771</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.635824974339698</v>
+        <v>4.669372393665014</v>
       </c>
       <c r="C10">
-        <v>0.1602400363737786</v>
+        <v>0.4895300377828846</v>
       </c>
       <c r="D10">
-        <v>0.5003103975120382</v>
+        <v>0.3340124856605513</v>
       </c>
       <c r="E10">
-        <v>0.1510060273706681</v>
+        <v>0.06291951006764585</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002514165439716449</v>
+        <v>0.0007941728230957692</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05446823107030685</v>
+        <v>0.02298863175517241</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5236926422612385</v>
+        <v>0.5377085592629953</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.666684324793156</v>
+        <v>0.6901576146264539</v>
       </c>
       <c r="O10">
-        <v>6.427247523763924</v>
+        <v>4.25503760591937</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.722460933144816</v>
+        <v>5.007772424417169</v>
       </c>
       <c r="C11">
-        <v>0.1701775859526151</v>
+        <v>0.5222271377741095</v>
       </c>
       <c r="D11">
-        <v>0.5022825542915399</v>
+        <v>0.3497105628473633</v>
       </c>
       <c r="E11">
-        <v>0.1506967193242179</v>
+        <v>0.06390320066966204</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002511661823993345</v>
+        <v>0.0007899915641669073</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05439268217186388</v>
+        <v>0.02287929285598356</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5309661551898586</v>
+        <v>0.5719991619424007</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.653495858948375</v>
+        <v>0.6581002623519616</v>
       </c>
       <c r="O11">
-        <v>6.438070057695995</v>
+        <v>4.438138947374739</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.755395535255616</v>
+        <v>5.136663846640602</v>
       </c>
       <c r="C12">
-        <v>0.173933846823445</v>
+        <v>0.5346449686716142</v>
       </c>
       <c r="D12">
-        <v>0.5030614132539881</v>
+        <v>0.3557500159209752</v>
       </c>
       <c r="E12">
-        <v>0.1505874479903824</v>
+        <v>0.06429284020296322</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002510731910536146</v>
+        <v>0.0007884201945661414</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05436483139578918</v>
+        <v>0.02283894739482228</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5337516080072078</v>
+        <v>0.5851008815787395</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.648598784104838</v>
+        <v>0.6462235917022312</v>
       </c>
       <c r="O12">
-        <v>6.442700532253127</v>
+        <v>4.509376296520543</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.748296830380468</v>
+        <v>5.10886990271581</v>
       </c>
       <c r="C13">
-        <v>0.1731251762817294</v>
+        <v>0.5319688330748136</v>
       </c>
       <c r="D13">
-        <v>0.5028922474941879</v>
+        <v>0.3544449447438467</v>
       </c>
       <c r="E13">
-        <v>0.1506106322903609</v>
+        <v>0.06420814291507959</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002510931378091415</v>
+        <v>0.0007887581012990806</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05437079590848537</v>
+        <v>0.02284758927661823</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5331503281315264</v>
+        <v>0.5822737887800571</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.649649136360249</v>
+        <v>0.6487695135608647</v>
       </c>
       <c r="O13">
-        <v>6.441679591207674</v>
+        <v>4.493946493792691</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.725167935376192</v>
+        <v>5.018360839897184</v>
       </c>
       <c r="C14">
-        <v>0.1704867541777162</v>
+        <v>0.5232479906880485</v>
       </c>
       <c r="D14">
-        <v>0.5023459894921274</v>
+        <v>0.3502054778573438</v>
       </c>
       <c r="E14">
-        <v>0.1506875721141405</v>
+        <v>0.06393490619392317</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002511584956191202</v>
+        <v>0.000789862052616779</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05439037570272376</v>
+        <v>0.02287595233924833</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5311946927991471</v>
+        <v>0.573074633620422</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.6530910269054</v>
+        <v>0.6571178075580839</v>
       </c>
       <c r="O14">
-        <v>6.438440337816417</v>
+        <v>4.443960508155783</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.711017380779481</v>
+        <v>4.963021733728226</v>
       </c>
       <c r="C15">
-        <v>0.1688697460693902</v>
+        <v>0.5179111627864188</v>
       </c>
       <c r="D15">
-        <v>0.5020155627072143</v>
+        <v>0.3476213124626071</v>
       </c>
       <c r="E15">
-        <v>0.1507357228038941</v>
+        <v>0.06376980818827427</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002511987653047609</v>
+        <v>0.0007905397834614598</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05440246748811095</v>
+        <v>0.02289346368565859</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5300008605488387</v>
+        <v>0.5674554721573202</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.655211933542926</v>
+        <v>0.6622660509474194</v>
       </c>
       <c r="O15">
-        <v>6.436525539813942</v>
+        <v>4.413595782350399</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.630181010203728</v>
+        <v>4.64735609238511</v>
       </c>
       <c r="C16">
-        <v>0.1595896382745536</v>
+        <v>0.4873978443784779</v>
       </c>
       <c r="D16">
-        <v>0.5001859992286342</v>
+        <v>0.3329993796385082</v>
       </c>
       <c r="E16">
-        <v>0.1510273415301349</v>
+        <v>0.06285755724519859</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002514331601840041</v>
+        <v>0.0007944478123731846</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05447327463851437</v>
+        <v>0.02299592500637448</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.523221663637969</v>
+        <v>0.5354831820584707</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.667559806627935</v>
+        <v>0.69228858477301</v>
       </c>
       <c r="O16">
-        <v>6.426614670298704</v>
+        <v>4.243327393083291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.580818797900804</v>
+        <v>4.454927574580324</v>
       </c>
       <c r="C17">
-        <v>0.1538844677604914</v>
+        <v>0.4687351555891155</v>
       </c>
       <c r="D17">
-        <v>0.4991207470749401</v>
+        <v>0.3241889755775418</v>
       </c>
       <c r="E17">
-        <v>0.1512202479177329</v>
+        <v>0.06232719187644697</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002515801963919761</v>
+        <v>0.0007968677192858631</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05451806657886227</v>
+        <v>0.0230606586292792</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5191184162145106</v>
+        <v>0.5160628573512014</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.675307702364531</v>
+        <v>0.7111584637103086</v>
       </c>
       <c r="O17">
-        <v>6.421481610734133</v>
+        <v>4.142062593367655</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.552511240203785</v>
+        <v>4.344665879555009</v>
       </c>
       <c r="C18">
-        <v>0.1505985841227755</v>
+        <v>0.4580192035947732</v>
       </c>
       <c r="D18">
-        <v>0.4985290502102657</v>
+        <v>0.3191774319406164</v>
       </c>
       <c r="E18">
-        <v>0.1513363544762569</v>
+        <v>0.06203253508462758</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002516659622452673</v>
+        <v>0.0007982681613263077</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05454432854354874</v>
+        <v>0.02309857903575896</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5167787953869549</v>
+        <v>0.5049599127407589</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.679827591626864</v>
+        <v>0.722173429563469</v>
       </c>
       <c r="O18">
-        <v>6.418876906462003</v>
+        <v>4.084933290862523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.542941299867607</v>
+        <v>4.307402127150283</v>
       </c>
       <c r="C19">
-        <v>0.1494852845336254</v>
+        <v>0.4543939013304339</v>
       </c>
       <c r="D19">
-        <v>0.4983323213422182</v>
+        <v>0.3174899726191001</v>
       </c>
       <c r="E19">
-        <v>0.1513765513982204</v>
+        <v>0.06193452151361178</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00251695206534349</v>
+        <v>0.0007987438293539943</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05455330618283494</v>
+        <v>0.02311153607351546</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5159901572426975</v>
+        <v>0.5012118015865639</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.681368852986733</v>
+        <v>0.7259302239260741</v>
       </c>
       <c r="O19">
-        <v>6.418054687085316</v>
+        <v>4.065776695736872</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.586064775641603</v>
+        <v>4.475367964675172</v>
       </c>
       <c r="C20">
-        <v>0.1544922512019014</v>
+        <v>0.4707198819816654</v>
       </c>
       <c r="D20">
-        <v>0.499231971064475</v>
+        <v>0.325121005929276</v>
       </c>
       <c r="E20">
-        <v>0.1511991795934033</v>
+        <v>0.06238256632788897</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002515644205766647</v>
+        <v>0.0007966092356484037</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05451324680108538</v>
+        <v>0.02305369643627575</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5195530973527696</v>
+        <v>0.5181231490925171</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.674476352557733</v>
+        <v>0.7091329156673112</v>
       </c>
       <c r="O20">
-        <v>6.421992041692022</v>
+        <v>4.152725706777233</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.731958003244472</v>
+        <v>5.044924453225747</v>
       </c>
       <c r="C21">
-        <v>0.1712619101249118</v>
+        <v>0.5258084697615573</v>
       </c>
       <c r="D21">
-        <v>0.5025055693439384</v>
+        <v>0.3514480634700021</v>
       </c>
       <c r="E21">
-        <v>0.1506647598892403</v>
+        <v>0.0640146877427803</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002511392492679952</v>
+        <v>0.0007895374787095788</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05438460410207391</v>
+        <v>0.02286759261282612</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5317682663081342</v>
+        <v>0.5757733756789349</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.652077423960147</v>
+        <v>0.6546584577656951</v>
       </c>
       <c r="O21">
-        <v>6.439377333343202</v>
+        <v>4.458589508352077</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.828049953853679</v>
+        <v>5.421567064149997</v>
       </c>
       <c r="C22">
-        <v>0.1821817371576628</v>
+        <v>0.5620267326243038</v>
       </c>
       <c r="D22">
-        <v>0.5048318233184119</v>
+        <v>0.3692121982973333</v>
       </c>
       <c r="E22">
-        <v>0.1503612760113633</v>
+        <v>0.06518186590760777</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002508719510315016</v>
+        <v>0.0007849849829699024</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0543049448498083</v>
+        <v>0.02275213954479849</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5399329905731491</v>
+        <v>0.6141376594846975</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.638004509135303</v>
+        <v>0.6205954812695893</v>
       </c>
       <c r="O22">
-        <v>6.453842230847101</v>
+        <v>4.669663948439904</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.776696347663574</v>
+        <v>5.22010792735324</v>
       </c>
       <c r="C23">
-        <v>0.1763573266363778</v>
+        <v>0.5426740774748566</v>
       </c>
       <c r="D23">
-        <v>0.5035731831235637</v>
+        <v>0.3596770618086822</v>
       </c>
       <c r="E23">
-        <v>0.1505190654218929</v>
+        <v>0.06454932196135488</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00251013648394912</v>
+        <v>0.0007874087535385149</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05434705765307069</v>
+        <v>0.02281319078469579</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5355587622946985</v>
+        <v>0.5935945541655627</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.645463663122808</v>
+        <v>0.6386295400024942</v>
       </c>
       <c r="O23">
-        <v>6.445837841590674</v>
+        <v>4.555923579041178</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.583692846490578</v>
+        <v>4.46612572531177</v>
       </c>
       <c r="C24">
-        <v>0.1542174906956575</v>
+        <v>0.4698225457539138</v>
       </c>
       <c r="D24">
-        <v>0.4991816221216681</v>
+        <v>0.3246994684605227</v>
       </c>
       <c r="E24">
-        <v>0.151208688377956</v>
+        <v>0.06235749967430948</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002515715489818559</v>
+        <v>0.0007967260673701394</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05451542423263511</v>
+        <v>0.02305684185095647</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5193565176028727</v>
+        <v>0.5171914988509485</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.67485200170734</v>
+        <v>0.7100481486590837</v>
       </c>
       <c r="O24">
-        <v>6.421760196997866</v>
+        <v>4.147901533973084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.378733697039308</v>
+        <v>3.668492530773904</v>
       </c>
       <c r="C25">
-        <v>0.1301674570422335</v>
+        <v>0.3919170451682703</v>
       </c>
       <c r="D25">
-        <v>0.4952479455920695</v>
+        <v>0.2890815419447819</v>
       </c>
       <c r="E25">
-        <v>0.1521495783107554</v>
+        <v>0.06038686305237739</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002522190421091079</v>
+        <v>0.0008071076127722209</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05471612184114694</v>
+        <v>0.02334592020615123</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5026623371403076</v>
+        <v>0.4373017176311151</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.708979774838273</v>
+        <v>0.7932112493554904</v>
       </c>
       <c r="O25">
-        <v>6.409077617275472</v>
+        <v>3.749840019812666</v>
       </c>
     </row>
   </sheetData>
